--- a/data/proyectos.xlsx
+++ b/data/proyectos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanl\Desktop\Moni_HV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Moni_HV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7756B3D4-7A51-43F5-9FA4-3B0E80E6BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3004A70F-B240-433D-A239-CCD49F3AFEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>what</t>
   </si>
@@ -43,15 +43,22 @@
     <t>Análisis del discurso periodístico en Colombia ¿entre la norma y la naturalización?</t>
   </si>
   <si>
-    <t>El quehacer periodístico en Colombia y sus aporte en los procesos de memoria histórica  en los 
-casos de violencia sexual
-contra mujeres en Colombia</t>
-  </si>
-  <si>
     <t>Bogotá, Colombia</t>
   </si>
   <si>
     <t>Investigadora Principal</t>
+  </si>
+  <si>
+    <t>Desde 2023</t>
+  </si>
+  <si>
+    <t>Asociación Red de Mujeres Víctimas y Profesionales</t>
+  </si>
+  <si>
+    <t>La necesidad de generar procesos de reparación social a las mujeres víctimas y sobrevivientes de violencias sexuales en el marco del conflicto armado desde el quehacer periodístico. Diversas propuestas de tratamiento según contextos</t>
+  </si>
+  <si>
+    <t>El quehacer periodístico en Colombia y sus aporte en los procesos de memoria histórica  en los casos de violencia sexual contra mujeres en Colombia</t>
   </si>
 </sst>
 </file>
@@ -596,9 +603,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -636,7 +643,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -742,7 +749,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -884,7 +891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -892,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,27 +933,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>2018</v>
-      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>2019</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
